--- a/Output_testing/R1_201907/Country/HKD/MN/COTE D'IVORE_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/COTE D'IVORE_201907_HKD_MN.xlsx
@@ -810,136 +810,451 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>207.602255</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>73.46851726330735</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>310.121538</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>84.12191281441714</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>277.269984</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>84.17064460033839</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>54.551647</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>62.6082838117334</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-49.88587184917277</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>25.552757</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>9.042884282637479</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>4.318372</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>1.171378535096199</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>16.31046</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>4.95135431582827</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>8.384929</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>9.623284418401409</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>128.7669588415154</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>0.86255</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.3052484644998956</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1.590486</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.4314267415523751</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>0.900044</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.2732256934406105</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>5.964366</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>6.84523272569668</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>2.327347</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.7065110127415153</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1.800794</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.066750099011065</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>607.1893371452359</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1.846477</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.6534511262934016</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>2.020854</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.5481660677133174</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>2.76199</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.8384552677713887</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.528525</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.754270169209186</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-19.1467516674222</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1.685805</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.5965907920656732</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>3.778974</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.025064313191782</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>1.501023</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.4556644453441226</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.509968</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.732972518513244</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>112.6700516193548</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>3.475935</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.230101236393768</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1.954075</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.5300519526729297</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2.845961</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.8639462823261232</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1.462272</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.678232380150704</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>0.6396518047761202</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1.678535</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.5940180063292936</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>3.315268</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.8992818991257133</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1.742551</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.528984922215613</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1.30124</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.49341784725913</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>28.20666926119877</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>0.708099</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.2505896846141227</v>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.09555189580574623</v>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>1.153437</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.323786082113237</v>
+      </c>
+      <c r="K26" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>7.054085</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.496375415572136</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1.956963</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.5308353361353452</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>2.326236</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.7061737472907013</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.880632</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.010690991413961</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-43.54720425861441</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>32.106586</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>11.36222372828687</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>39.132043</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>10.61474907781485</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>21.36357</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>6.485323192662829</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>8.593866</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>9.863078956497979</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-23.40256563514916</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1286,591 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>1.738715</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>11.07750292416923</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1.71334</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>12.0471134993991</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>1.619938</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>76.5245381543748</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>0.692419</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>95.1538030243897</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-44.23688205425561</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>3.792855140418093</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0.08514956538680679</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.07726060392648119</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.06925263370222406</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>1.053341835192199</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>13.94036</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>88.81523347067908</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>12.497668</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>87.87562589667442</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>23.40620921192298</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>WORN CLOTHING AND OTHER WORN TEXTILE ARTICLES; RAGS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>SUGARS, MOLASSES, AND HONEY</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1902,457 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>207.602255</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>77.789438739296</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>310.121538</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>87.49737127595004</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>277.269984</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>84.71504194957619</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>54.551647</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>63.13556322721756</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-49.88587184917277</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>25.552757</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>9.574725598580887</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>4.318372</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>1.218381027736509</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>16.31046</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>4.983378594333833</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>8.384929</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>9.704330559171387</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>128.7669588415154</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>0.86255</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.3232011154434703</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1.590486</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.4487380816846093</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>0.900044</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.2749928575624845</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>5.964366</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>6.902882450153461</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>2.327347</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.71108057169369</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1.800794</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.084156019087636</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>607.1893371452359</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1.685805</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.6316782289956286</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>3.778974</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.066195831648952</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1.501023</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.4586115834748224</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.509968</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.747567404061609</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>112.6700516193548</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>3.475935</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.302447474591617</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1.954075</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.5513207076125493</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>2.845961</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.8695340982234046</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.462272</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.692366250855632</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>0.6396518047761202</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1.678535</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.6289541293964471</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>3.315268</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.935366298471267</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1.742551</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.5324062811799921</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1.30124</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.505995232257324</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>28.20666926119877</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>0.708099</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.2653276756644901</v>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.09938599139894272</v>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1.153437</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.334934848843558</v>
+      </c>
+      <c r="K51" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>7.054085</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>2.643195339902675</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1.956963</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.5521355249576282</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>2.326236</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.7107411248835874</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>0.880632</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.019202909050776</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-43.54720425861441</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.08676168319064799</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1.142052</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.3489342109551872</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0.836106</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.9676705678135796</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>28.87397538140937</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>18.14939</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>6.800652823162212</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>26.623387</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>7.511494983499992</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>20.866621</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>6.375434685930184</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>8.558600999999999</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>9.905330531487481</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-20.19237341453159</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2384,537 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>1.554573</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>29.35077695193326</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>2.416543</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>49.18119299056833</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>158.4432932137518</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>13.23506114200947</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>0.6258</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>28.27751183200139</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1.069328</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>20.18921441222566</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>1.3448</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>27.36920813480922</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>126.157062110788</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>6.615256842769263</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>0.570087</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>11.60234217575029</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>0.575106</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>14.28060614096905</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>0.749619</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>33.87241953019024</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>2.017783</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>38.0963124732018</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>0.552121</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>11.23670030086184</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-40.25660225460259</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>12.32524380571824</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>0.56346</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>25.46060533215006</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>10.19535239197127</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.6105563980103188</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-92.5</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>2.345799</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>58.24914294908946</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.602558353760225</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.4332558101421788</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.462134432502239</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.3214745651446201</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.2443108517631635</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.5082710441196847</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.842527064262883</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.8133512511601552</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>0.9684191079519128</v>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>0.6561937149637652</v>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
